--- a/2006/forcible-sex-offenses-2006.xlsx
+++ b/2006/forcible-sex-offenses-2006.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="relationship-of-victim-to-offen" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="resident-status-of-victim" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="how-suspect-left-the-scene" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="by-day-of-week-and-time-of-day" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="offender-age-gender-and-race" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="victim-age-gender-and-race" state="visible" r:id="rId8"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="resident-status-of-victim" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="how-suspect-left-the-scene" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="by-day-of-week-and-time-of-day" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="offender-age-gender-and-race" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="victim-age-gender-and-race" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -102,19 +103,61 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Resident Status of Victim</t>
   </si>
   <si>
+    <t>January</t>
+  </si>
+  <si>
     <t>Number</t>
   </si>
   <si>
     <t>Resident</t>
   </si>
   <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
     <t>Nonresident</t>
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Number of Sex Offenses</t>
   </si>
   <si>
     <t>Total Status</t>
@@ -375,27 +418,31 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/worksheetdrawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -667,15 +714,15 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c s="2" r="B2">
         <v>3841.0</v>
@@ -683,7 +730,7 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c s="2" r="B3">
         <v>858.0</v>
@@ -691,7 +738,7 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c s="2" r="B4">
         <v>776.0</v>
@@ -699,7 +746,7 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c t="str" s="2" r="B5">
         <f>SUM(B2:B4)</f>
@@ -718,96 +765,102 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="38.71"/>
+    <col min="1" customWidth="1" max="1" width="33.57"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="2" r="A1">
+      <c t="s" s="1" r="A1">
+        <v>28</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="D1">
         <v>34</v>
       </c>
-      <c t="s" s="2" r="B1">
+      <c t="s" s="1" r="E1">
         <v>35</v>
       </c>
+      <c t="s" s="1" r="F1">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>37</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>38</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>40</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>41</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>43</v>
+      </c>
+      <c s="1" r="N1"/>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c s="2" r="B2">
-        <v>203.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>37</v>
-      </c>
-      <c s="2" r="B3">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>38</v>
-      </c>
-      <c s="2" r="B4">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>39</v>
-      </c>
-      <c s="2" r="B5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>40</v>
-      </c>
-      <c s="2" r="B6">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>41</v>
-      </c>
-      <c s="2" r="B7">
-        <v>324.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>42</v>
-      </c>
-      <c s="2" r="B8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>43</v>
-      </c>
-      <c s="2" r="B9">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>44</v>
-      </c>
-      <c s="2" r="B10">
-        <v>325.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>45</v>
-      </c>
-      <c t="str" s="2" r="B11">
-        <f>SUM(B2:B10)</f>
-        <v>949</v>
+        <v>137.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>144.0</v>
+      </c>
+      <c s="2" r="D2">
+        <v>143.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>135.0</v>
+      </c>
+      <c s="2" r="F2">
+        <v>156.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>143.0</v>
+      </c>
+      <c s="2" r="H2">
+        <v>161.0</v>
+      </c>
+      <c s="2" r="I2">
+        <v>169.0</v>
+      </c>
+      <c s="2" r="J2">
+        <v>167.0</v>
+      </c>
+      <c s="2" r="K2">
+        <v>133.0</v>
+      </c>
+      <c s="2" r="L2">
+        <v>127.0</v>
+      </c>
+      <c s="2" r="M2">
+        <v>128.0</v>
       </c>
     </row>
   </sheetData>
@@ -827,46 +880,46 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c t="s" s="1" r="E1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c t="s" s="1" r="G1">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c t="s" s="1" r="I1">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c t="s" s="1" r="J1">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c t="s" s="1" r="K1">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c t="s" s="1" r="L1">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c t="s" s="1" r="M1">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c t="s" s="1" r="N1">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c s="1" r="O1"/>
       <c s="1" r="P1"/>
@@ -883,7 +936,7 @@
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c s="2" r="B2">
         <v>96.0</v>
@@ -927,7 +980,7 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c s="2" r="B3">
         <v>70.0</v>
@@ -971,7 +1024,7 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c s="2" r="B4">
         <v>77.0</v>
@@ -1015,7 +1068,7 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c s="2" r="B5">
         <v>96.0</v>
@@ -1059,7 +1112,7 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c s="2" r="B6">
         <v>86.0</v>
@@ -1103,7 +1156,7 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c s="2" r="B7">
         <v>134.0</v>
@@ -1147,7 +1200,7 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c s="2" r="B8">
         <v>137.0</v>
@@ -1191,7 +1244,7 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:N9" t="shared" si="1">SUM(B2:B8)</f>
@@ -1258,196 +1311,99 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="30.0"/>
+    <col min="1" customWidth="1" max="1" width="38.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c t="s" s="3" r="A1">
-        <v>68</v>
+      <c t="s" s="2" r="A1">
+        <v>48</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c t="s" r="A2">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="E2">
-        <v>71</v>
+      <c t="s" s="2" r="A2">
+        <v>50</v>
+      </c>
+      <c s="2" r="B2">
+        <v>203.0</v>
       </c>
     </row>
     <row r="3">
-      <c t="s" s="1" r="B3">
-        <v>72</v>
-      </c>
-      <c t="s" s="1" r="C3">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="D3">
-        <v>74</v>
-      </c>
-      <c t="s" s="1" r="E3">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="F3">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="G3">
-        <v>77</v>
+      <c t="s" s="2" r="A3">
+        <v>51</v>
+      </c>
+      <c s="2" r="B3">
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>78</v>
+      <c t="s" s="2" r="A4">
+        <v>52</v>
       </c>
       <c s="2" r="B4">
-        <v>682.0</v>
-      </c>
-      <c s="2" r="C4">
-        <v>1296.0</v>
-      </c>
-      <c s="2" r="D4">
-        <v>880.0</v>
-      </c>
-      <c s="2" r="E4">
-        <v>42.0</v>
-      </c>
-      <c s="2" r="F4">
-        <v>73.0</v>
-      </c>
-      <c s="2" r="G4">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>79</v>
+      <c t="s" s="2" r="A5">
+        <v>53</v>
       </c>
       <c s="2" r="B5">
-        <v>667.0</v>
-      </c>
-      <c s="2" r="C5">
-        <v>801.0</v>
-      </c>
-      <c s="2" r="D5">
-        <v>499.0</v>
-      </c>
-      <c s="2" r="E5">
-        <v>35.0</v>
-      </c>
-      <c s="2" r="F5">
-        <v>10.0</v>
-      </c>
-      <c s="2" r="G5">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c t="s" s="1" r="A6">
-        <v>80</v>
+      <c t="s" s="2" r="A6">
+        <v>54</v>
       </c>
       <c s="2" r="B6">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>55</v>
+      </c>
+      <c s="2" r="B7">
+        <v>324.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>56</v>
+      </c>
+      <c s="2" r="B8">
         <v>0.0</v>
       </c>
-      <c s="2" r="C6">
-        <v>3.0</v>
-      </c>
-      <c s="2" r="D6">
-        <v>4.0</v>
-      </c>
-      <c s="2" r="E6">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="F6">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="G6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="1" r="A7">
-        <v>81</v>
-      </c>
-      <c s="2" r="B7">
-        <v>3.0</v>
-      </c>
-      <c s="2" r="C7">
-        <v>14.0</v>
-      </c>
-      <c s="2" r="D7">
-        <v>20.0</v>
-      </c>
-      <c s="2" r="E7">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="F7">
-        <v>0.0</v>
-      </c>
-      <c s="2" r="G7">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="1" r="A8">
-        <v>82</v>
-      </c>
-      <c s="2" r="B8">
-        <v>75.0</v>
-      </c>
-      <c s="2" r="C8">
-        <v>49.0</v>
-      </c>
-      <c s="2" r="D8">
-        <v>19.0</v>
-      </c>
-      <c s="2" r="E8">
-        <v>6.0</v>
-      </c>
-      <c s="2" r="F8">
-        <v>1.0</v>
-      </c>
-      <c s="2" r="G8">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9">
-      <c t="s" s="1" r="A9">
-        <v>83</v>
-      </c>
-      <c t="str" s="2" r="B9">
-        <f ref="B9:G9" t="shared" si="1">SUM(B4:B8)</f>
-        <v>1427</v>
-      </c>
-      <c t="str" s="2" r="C9">
-        <f t="shared" si="1"/>
-        <v>2163</v>
-      </c>
-      <c t="str" s="2" r="D9">
-        <f t="shared" si="1"/>
-        <v>1422</v>
-      </c>
-      <c t="str" s="2" r="E9">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c t="str" s="2" r="F9">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c t="str" s="2" r="G9">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c t="s" s="2" r="A9">
+        <v>57</v>
+      </c>
+      <c s="2" r="B9">
+        <v>64.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>58</v>
+      </c>
+      <c s="2" r="B10">
+        <v>325.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>59</v>
+      </c>
+      <c t="str" s="2" r="B11">
+        <f>SUM(B2:B10)</f>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1464,43 +1420,43 @@
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c s="2" r="B4">
         <v>418.0</v>
@@ -1523,7 +1479,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c s="2" r="B5">
         <v>203.0</v>
@@ -1546,7 +1502,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c s="2" r="B6">
         <v>2.0</v>
@@ -1569,7 +1525,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c s="2" r="B7">
         <v>4.0</v>
@@ -1592,7 +1548,7 @@
     </row>
     <row r="8">
       <c t="s" s="1" r="A8">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c s="2" r="B8">
         <v>13.0</v>
@@ -1615,7 +1571,7 @@
     </row>
     <row r="9">
       <c t="s" s="1" r="A9">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:G9" t="shared" si="1">SUM(B4:B8)</f>
@@ -1640,6 +1596,207 @@
       <c t="str" s="2" r="G9">
         <f t="shared" si="1"/>
         <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="30.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="3" r="A1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" r="A2">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="B2">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="E2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="1" r="B3">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="C3">
+        <v>87</v>
+      </c>
+      <c t="s" s="1" r="D3">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="E3">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="F3">
+        <v>90</v>
+      </c>
+      <c t="s" s="1" r="G3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>92</v>
+      </c>
+      <c s="2" r="B4">
+        <v>682.0</v>
+      </c>
+      <c s="2" r="C4">
+        <v>1296.0</v>
+      </c>
+      <c s="2" r="D4">
+        <v>880.0</v>
+      </c>
+      <c s="2" r="E4">
+        <v>42.0</v>
+      </c>
+      <c s="2" r="F4">
+        <v>73.0</v>
+      </c>
+      <c s="2" r="G4">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>93</v>
+      </c>
+      <c s="2" r="B5">
+        <v>667.0</v>
+      </c>
+      <c s="2" r="C5">
+        <v>801.0</v>
+      </c>
+      <c s="2" r="D5">
+        <v>499.0</v>
+      </c>
+      <c s="2" r="E5">
+        <v>35.0</v>
+      </c>
+      <c s="2" r="F5">
+        <v>10.0</v>
+      </c>
+      <c s="2" r="G5">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="1" r="A6">
+        <v>94</v>
+      </c>
+      <c s="2" r="B6">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="C6">
+        <v>3.0</v>
+      </c>
+      <c s="2" r="D6">
+        <v>4.0</v>
+      </c>
+      <c s="2" r="E6">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="F6">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="G6">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="1" r="A7">
+        <v>95</v>
+      </c>
+      <c s="2" r="B7">
+        <v>3.0</v>
+      </c>
+      <c s="2" r="C7">
+        <v>14.0</v>
+      </c>
+      <c s="2" r="D7">
+        <v>20.0</v>
+      </c>
+      <c s="2" r="E7">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="F7">
+        <v>0.0</v>
+      </c>
+      <c s="2" r="G7">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="1" r="A8">
+        <v>96</v>
+      </c>
+      <c s="2" r="B8">
+        <v>75.0</v>
+      </c>
+      <c s="2" r="C8">
+        <v>49.0</v>
+      </c>
+      <c s="2" r="D8">
+        <v>19.0</v>
+      </c>
+      <c s="2" r="E8">
+        <v>6.0</v>
+      </c>
+      <c s="2" r="F8">
+        <v>1.0</v>
+      </c>
+      <c s="2" r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="1" r="A9">
+        <v>97</v>
+      </c>
+      <c t="str" s="2" r="B9">
+        <f ref="B9:G9" t="shared" si="1">SUM(B4:B8)</f>
+        <v>1427</v>
+      </c>
+      <c t="str" s="2" r="C9">
+        <f t="shared" si="1"/>
+        <v>2163</v>
+      </c>
+      <c t="str" s="2" r="D9">
+        <f t="shared" si="1"/>
+        <v>1422</v>
+      </c>
+      <c t="str" s="2" r="E9">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c t="str" s="2" r="F9">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c t="str" s="2" r="G9">
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
